--- a/results/mp/logistic/corona/confidence/126/topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,75 +55,87 @@
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
@@ -136,7 +148,13 @@
     <t>care</t>
   </si>
   <si>
-    <t>and</t>
+    <t>you</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
   <si>
     <t>.</t>
@@ -497,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,10 +523,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -566,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.726027397260274</v>
+        <v>0.7157534246575342</v>
       </c>
       <c r="C3">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D3">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -584,19 +602,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -608,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -616,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4338624338624338</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C4">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -634,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -658,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -666,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3410852713178295</v>
+        <v>0.3604651162790697</v>
       </c>
       <c r="C5">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D5">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -684,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2147651006711409</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -734,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>0.8839285714285714</v>
@@ -787,16 +805,16 @@
         <v>308</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8381201044386423</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>321</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>321</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -808,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>62</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -816,37 +834,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.004859086491739553</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>5120</v>
+        <v>226</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8205128205128205</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>312</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>312</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -858,21 +876,45 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.00506033476060724</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>0.51</v>
+      </c>
+      <c r="F9">
+        <v>0.49</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>5112</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -884,21 +926,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -910,21 +952,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.8018867924528302</v>
+        <v>0.78125</v>
       </c>
       <c r="L11">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -936,21 +978,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.795774647887324</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L12">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M12">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -962,21 +1004,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7926829268292683</v>
+        <v>0.76875</v>
       </c>
       <c r="L13">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -988,21 +1030,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7906976744186046</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1014,21 +1056,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1040,21 +1082,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7446808510638298</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1066,21 +1108,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7375</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L17">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="M17">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1092,21 +1134,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.7291666666666666</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1118,21 +1160,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1144,15 +1186,15 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.66</v>
+        <v>0.6875</v>
       </c>
       <c r="L20">
         <v>33</v>
@@ -1170,21 +1212,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21">
+        <v>0.66</v>
+      </c>
+      <c r="L21">
         <v>33</v>
       </c>
-      <c r="K21">
-        <v>0.638235294117647</v>
-      </c>
-      <c r="L21">
-        <v>217</v>
-      </c>
       <c r="M21">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1196,21 +1238,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>123</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5851063829787234</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L22">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1222,21 +1264,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5815899581589958</v>
+        <v>0.65</v>
       </c>
       <c r="L23">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1248,21 +1290,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5692307692307692</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>220</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>220</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1274,47 +1316,47 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>28</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5612244897959183</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L25">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="M25">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5571428571428572</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1326,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.4719101123595505</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L27">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1352,59 +1394,215 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.00975609756097561</v>
+        <v>0.5220338983050847</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="M28">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="N28">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>2639</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.00823293172690763</v>
+        <v>0.4428571428571428</v>
       </c>
       <c r="L29">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N29">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>4939</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30">
+        <v>0.4382022471910113</v>
+      </c>
+      <c r="L30">
+        <v>39</v>
+      </c>
+      <c r="M30">
+        <v>39</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31">
+        <v>0.02341137123745819</v>
+      </c>
+      <c r="L31">
+        <v>28</v>
+      </c>
+      <c r="M31">
+        <v>32</v>
+      </c>
+      <c r="N31">
+        <v>0.88</v>
+      </c>
+      <c r="O31">
+        <v>0.12</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>0.01045150501672241</v>
+      </c>
+      <c r="L32">
+        <v>25</v>
+      </c>
+      <c r="M32">
+        <v>27</v>
+      </c>
+      <c r="N32">
+        <v>0.93</v>
+      </c>
+      <c r="O32">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33">
+        <v>0.00741942963134709</v>
+      </c>
+      <c r="L33">
+        <v>32</v>
+      </c>
+      <c r="M33">
+        <v>47</v>
+      </c>
+      <c r="N33">
+        <v>0.68</v>
+      </c>
+      <c r="O33">
+        <v>0.32</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34">
+        <v>0.006031363088057901</v>
+      </c>
+      <c r="L34">
+        <v>30</v>
+      </c>
+      <c r="M34">
+        <v>52</v>
+      </c>
+      <c r="N34">
+        <v>0.58</v>
+      </c>
+      <c r="O34">
+        <v>0.42</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35">
+        <v>0.005253940455341506</v>
+      </c>
+      <c r="L35">
+        <v>27</v>
+      </c>
+      <c r="M35">
+        <v>53</v>
+      </c>
+      <c r="N35">
+        <v>0.51</v>
+      </c>
+      <c r="O35">
+        <v>0.49</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>5112</v>
       </c>
     </row>
   </sheetData>
